--- a/summaries/trials/seqRunControl/lineages.xlsx
+++ b/summaries/trials/seqRunControl/lineages.xlsx
@@ -23,25 +23,25 @@
     <t xml:space="preserve">seqRunControl|AHTMV3AFX2|Blank_swab|NA</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.7</t>
+    <t xml:space="preserve">VSP9959</t>
   </si>
   <si>
     <t xml:space="preserve">seqRunControl|AHTMV3AFX4|Negative_control|NA</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP9957</t>
+  </si>
+  <si>
     <t xml:space="preserve">seqRunControl|AHTMV3AFX5|Negative_control|NA</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.234</t>
+    <t xml:space="preserve">VSP9956</t>
   </si>
   <si>
     <t xml:space="preserve">seqRunControl|AHTMV3AFX6|Empty_well|NA</t>
   </si>
   <si>
-    <t xml:space="preserve">seqRunControl|AHTMV3AFX7|Negative_control|NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.1</t>
+    <t xml:space="preserve">VSP9955</t>
   </si>
 </sst>
 </file>
@@ -394,30 +394,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
